--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1320423333333333</v>
+        <v>0.02193933333333333</v>
       </c>
       <c r="H2">
-        <v>0.396127</v>
+        <v>0.065818</v>
       </c>
       <c r="I2">
-        <v>0.01362486282338958</v>
+        <v>0.002162808429320595</v>
       </c>
       <c r="J2">
-        <v>0.01362486282338958</v>
+        <v>0.002162808429320595</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N2">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O2">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P2">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q2">
-        <v>16.15259629503133</v>
+        <v>1.840978947822889</v>
       </c>
       <c r="R2">
-        <v>145.373366655282</v>
+        <v>16.568810530406</v>
       </c>
       <c r="S2">
-        <v>0.01332971151911183</v>
+        <v>0.002066836304081759</v>
       </c>
       <c r="T2">
-        <v>0.01332971151911183</v>
+        <v>0.002066836304081758</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1320423333333333</v>
+        <v>0.02193933333333333</v>
       </c>
       <c r="H3">
-        <v>0.396127</v>
+        <v>0.065818</v>
       </c>
       <c r="I3">
-        <v>0.01362486282338958</v>
+        <v>0.002162808429320595</v>
       </c>
       <c r="J3">
-        <v>0.01362486282338958</v>
+        <v>0.002162808429320595</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.159072</v>
       </c>
       <c r="O3">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P3">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q3">
-        <v>0.05101552379377779</v>
+        <v>0.008476422321777779</v>
       </c>
       <c r="R3">
-        <v>0.4591397141440001</v>
+        <v>0.07628780089600001</v>
       </c>
       <c r="S3">
-        <v>4.209987068002336E-05</v>
+        <v>9.516337709400439E-06</v>
       </c>
       <c r="T3">
-        <v>4.209987068002336E-05</v>
+        <v>9.516337709400438E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1320423333333333</v>
+        <v>0.02193933333333333</v>
       </c>
       <c r="H4">
-        <v>0.396127</v>
+        <v>0.065818</v>
       </c>
       <c r="I4">
-        <v>0.01362486282338958</v>
+        <v>0.002162808429320595</v>
       </c>
       <c r="J4">
-        <v>0.01362486282338958</v>
+        <v>0.002162808429320595</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.322294</v>
+        <v>3.510050666666667</v>
       </c>
       <c r="N4">
-        <v>6.966882</v>
+        <v>10.530152</v>
       </c>
       <c r="O4">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="P4">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
       <c r="Q4">
-        <v>0.306641118446</v>
+        <v>0.0770081715928889</v>
       </c>
       <c r="R4">
-        <v>2.759770066014</v>
+        <v>0.6930735443360001</v>
       </c>
       <c r="S4">
-        <v>0.0002530514335977251</v>
+        <v>8.6455787529436E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002530514335977252</v>
+        <v>8.6455787529436E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.730541</v>
+        <v>7.730541000000001</v>
       </c>
       <c r="H5">
         <v>23.191623</v>
       </c>
       <c r="I5">
-        <v>0.7976802440297347</v>
+        <v>0.7620869323593149</v>
       </c>
       <c r="J5">
-        <v>0.7976802440297348</v>
+        <v>0.7620869323593149</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N5">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O5">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P5">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q5">
-        <v>945.6687470068019</v>
+        <v>648.6871328336491</v>
       </c>
       <c r="R5">
-        <v>8511.018723061217</v>
+        <v>5838.184195502842</v>
       </c>
       <c r="S5">
-        <v>0.7804003368869046</v>
+        <v>0.728270205217076</v>
       </c>
       <c r="T5">
-        <v>0.7804003368869048</v>
+        <v>0.728270205217076</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.730541</v>
+        <v>7.730541000000001</v>
       </c>
       <c r="H6">
         <v>23.191623</v>
       </c>
       <c r="I6">
-        <v>0.7976802440297347</v>
+        <v>0.7620869323593149</v>
       </c>
       <c r="J6">
-        <v>0.7976802440297348</v>
+        <v>0.7620869323593149</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>1.159072</v>
       </c>
       <c r="O6">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P6">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q6">
-        <v>2.986751205984</v>
+        <v>2.986751205984001</v>
       </c>
       <c r="R6">
-        <v>26.880760853856</v>
+        <v>26.88076085385601</v>
       </c>
       <c r="S6">
-        <v>0.002464776016681154</v>
+        <v>0.003353175673783745</v>
       </c>
       <c r="T6">
-        <v>0.002464776016681154</v>
+        <v>0.003353175673783745</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.730541</v>
+        <v>7.730541000000001</v>
       </c>
       <c r="H7">
         <v>23.191623</v>
       </c>
       <c r="I7">
-        <v>0.7976802440297347</v>
+        <v>0.7620869323593149</v>
       </c>
       <c r="J7">
-        <v>0.7976802440297348</v>
+        <v>0.7620869323593149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.322294</v>
+        <v>3.510050666666667</v>
       </c>
       <c r="N7">
-        <v>6.966882</v>
+        <v>10.530152</v>
       </c>
       <c r="O7">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="P7">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
       <c r="Q7">
-        <v>17.952588981054</v>
+        <v>27.13459059074401</v>
       </c>
       <c r="R7">
-        <v>161.573300829486</v>
+        <v>244.2113153166961</v>
       </c>
       <c r="S7">
-        <v>0.01481513112614887</v>
+        <v>0.03046355146845516</v>
       </c>
       <c r="T7">
-        <v>0.01481513112614887</v>
+        <v>0.03046355146845516</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.828694666666667</v>
+        <v>2.391429333333333</v>
       </c>
       <c r="H8">
-        <v>5.486084</v>
+        <v>7.174287999999999</v>
       </c>
       <c r="I8">
-        <v>0.1886948931468756</v>
+        <v>0.2357502592113645</v>
       </c>
       <c r="J8">
-        <v>0.1886948931468757</v>
+        <v>0.2357502592113645</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N8">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O8">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P8">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q8">
-        <v>223.7022472404826</v>
+        <v>200.6702296274329</v>
       </c>
       <c r="R8">
-        <v>2013.320225164344</v>
+        <v>1806.032066646896</v>
       </c>
       <c r="S8">
-        <v>0.1846072524458447</v>
+        <v>0.2252891138341807</v>
       </c>
       <c r="T8">
-        <v>0.1846072524458447</v>
+        <v>0.2252891138341807</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.828694666666667</v>
+        <v>2.391429333333333</v>
       </c>
       <c r="H9">
-        <v>5.486084</v>
+        <v>7.174287999999999</v>
       </c>
       <c r="I9">
-        <v>0.1886948931468756</v>
+        <v>0.2357502592113645</v>
       </c>
       <c r="J9">
-        <v>0.1886948931468757</v>
+        <v>0.2357502592113645</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.159072</v>
       </c>
       <c r="O9">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P9">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q9">
-        <v>0.7065295948942223</v>
+        <v>0.9239462600817777</v>
       </c>
       <c r="R9">
-        <v>6.358766354048001</v>
+        <v>8.315516340736</v>
       </c>
       <c r="S9">
-        <v>0.0005830539875841466</v>
+        <v>0.001037299028115395</v>
       </c>
       <c r="T9">
-        <v>0.0005830539875841467</v>
+        <v>0.001037299028115395</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.828694666666667</v>
+        <v>2.391429333333333</v>
       </c>
       <c r="H10">
-        <v>5.486084</v>
+        <v>7.174287999999999</v>
       </c>
       <c r="I10">
-        <v>0.1886948931468756</v>
+        <v>0.2357502592113645</v>
       </c>
       <c r="J10">
-        <v>0.1886948931468757</v>
+        <v>0.2357502592113645</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.322294</v>
+        <v>3.510050666666667</v>
       </c>
       <c r="N10">
-        <v>6.966882</v>
+        <v>10.530152</v>
       </c>
       <c r="O10">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="P10">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
       <c r="Q10">
-        <v>4.246766652231999</v>
+        <v>8.394038125752887</v>
       </c>
       <c r="R10">
-        <v>38.220899870088</v>
+        <v>75.546343131776</v>
       </c>
       <c r="S10">
-        <v>0.003504586713446804</v>
+        <v>0.009423846349068373</v>
       </c>
       <c r="T10">
-        <v>0.003504586713446805</v>
+        <v>0.009423846349068375</v>
       </c>
     </row>
   </sheetData>
